--- a/P3_2 Stroke CI Profile in NH.xlsx
+++ b/P3_2 Stroke CI Profile in NH.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34404" windowHeight="9480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stroke_CI_NH " sheetId="10" r:id="rId1"/>
-    <sheet name="Sources" sheetId="4" r:id="rId2"/>
+    <sheet name="MetaData" sheetId="4" r:id="rId2"/>
+    <sheet name="Data Dictionary" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Aged &lt;75</t>
   </si>
@@ -43,31 +44,73 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Proportion of total population in Nursing Homes in Ireland (Pr in NH) derived from following data sources:</t>
-  </si>
-  <si>
-    <t>1. CSO Estimates for 2015 population. Available at statbank.cso.ie</t>
-  </si>
-  <si>
-    <t>2. Estimated numbers in residential long-term and intermediate care settings, Ireland, end-December 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimates developed by the Economic and Social Research Institute, supplied to StrokeCog project by Dr Maev-Ann Wren, December 19th 2018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESRI estimates developed from administrative data supplied by HSE Social Care Division, Department of Health, and HIQA; and from surveys undertaken by Department of Health and Nursing Homes Ireland. </t>
-  </si>
-  <si>
-    <t>For further detail on data sources and estimation methods, see Chapter 3, Wren et al. (2017) Projections of Demand for Healthcare in Ireland, 2015-2030: First Report from th HIPPOCRATES Model. ESRI: Dublin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnelly NA, Sexton E, Merriman NA, Bennett KE, Williams DJ, Horgan F, et al. The Prevalence of Cognitive Impairment on Admission to Nursing Home among Residents with and without Stroke: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cross – Sectional Survey of Nursing Homes in Ireland. Int J Environ Res Public Health. 2020;17(19):7203. </t>
-  </si>
-  <si>
-    <t>Proportion of adults in nursing homes who have stroke and cognitive impairment (Stroke_Pr_NH and Stroke_CI_NH) derived from the StrokeCog Survey of Nursing Homes</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>StrokeCog Survey of Nursing Homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnelly NA,  et al. The Prevalence of Cognitive Impairment on Admission to Nursing Home among Residents with and without Stroke: A Cross – Sectional Survey of Nursing Homes in Ireland. Int J Environ Res Public Health. 2020;17(19):7203. </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Face to face interview survey with directors of nursing in each nursing home</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Hospital or GP recorded diagnosis of stroke in nursing home records</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (CIND and dementia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive of residents status was ascertained from nursing home records, including records of clinical diagnoses and scores on the MMSE. DSM-V criteria were applied. See Donnelly et al (2020) for more details. </t>
+  </si>
+  <si>
+    <t>Residents of nursing homes in the Republic of Ireland, with a diagnosis of stroke</t>
+  </si>
+  <si>
+    <t>Men and Women aged 18+ years</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Stroke_CI_NH</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in a nursing home with no cognitive impairment</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in a nursing home with cognitive impairment no dementia</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in a nursing home with dementia</t>
   </si>
 </sst>
 </file>
@@ -91,16 +134,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -123,13 +163,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,7 +482,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,79 +558,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:J5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>